--- a/biology/Médecine/Jacques_Lisfranc/Jacques_Lisfranc.xlsx
+++ b/biology/Médecine/Jacques_Lisfranc/Jacques_Lisfranc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Lisfranc de Saint Martin, né le 1787 à Saint-Paul-en-Jarez (Loire) et mort le 13 mai 1847 à Paris, est un chirurgien et gynécologue français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît dans une famille de médecins et poursuit d'abord des études de médecine à Lyon puis à Paris sous la direction de Dupuytren. Reçu médecine en 1813, il entre très jeune au Service de santé des armées et participe à la dernière campagne d'Allemagne. Il vient se fixer définitivement à Paris en 1814 pour enseigner la chirurgie.
 Il devient chirurgien en chef de la Pitié en succédant à Pierre-Augustin Béclard, et acquiert une grande renommée pour ses cours de médecine opératoire. Ses perfectionnements techniques autant que sa dextérité lui attire une importante clientèle. Il est reconnu pour ses compétences mais également pour son caractère emporté, laissant se développer un caractère de scandale autour de sa personne. Il est l'un des pionniers pour certaines intervention, dont l'ablation du rectum et l'amputation du col de l'utérus chez la femme. Il fixe certaines règles pour la ligature et l'amputation.
 Dans La Débâcle, Émile Zola décrit la désarticulation de l'épaule d'un blessé de Sedan selon la « méthode de Lisfranc » :
 « Cette fois, il s'agissait de la désarticulation d'une épaule, d'après la méthode de Lisfranc, ce que les chirurgiens appelaient une jolie opération, quelque chose d'élégant et de prompt, en tout quarante secondes à peine. Déjà, on chloroformait le patient, pendant qu'un aide lui saisissait l'épaule à deux mains, les quatre doigts sous l'aisselle, le pouce en dessus. Alors, Bouroche, armé du grand couteau long, après avoir crié : « asseyez-le ! », empoigna le deltoïde, transperça le bras, trancha le muscle ; puis, revenant en arrière, il détacha la jointure d'un seul coup ; et le bras était tombé, abattu en trois mouvements. L'aide avait fait glisser ses pouces, pour boucher l'artère humérale. « Recouchez-le ! » Bouroche eut un rire involontaire en procédant à la ligature, car il n'avait mis que trente-cinq secondes. Il ne restait plus qu'à rabattre le lambeau de chair sur la plaie, ainsi qu'une épaulette à plat. Cela était joli, à cause du danger, un homme pouvant se vider de tout son sang en trois minutes par l'artère humérale, sans compter qu'il y a péril de mort, chaque fois qu'on assoit un blessé, sous l'action du chloroforme. »
-Il est membre de l'Académie royale de médecine depuis sa fondation[1] et son président pour 1835.
+Il est membre de l'Académie royale de médecine depuis sa fondation et son président pour 1835.
 Il succombe à l'âge de 57 ans d'une « angine couenneuse » (pseudo-membraneuse) compliquée d'une fièvre pernicieuse. Il est enterré au cimetière du Montparnasse (division 13).
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quelques propositions de pathologie, précédées de recherches, réflexions et observations, [Thèse médecine de Paris no 135, présentée le 26 août 1813], Didot jeune, Paris, 1813,Texte intégral.
 Mémoire sur de nouvelles applications du stéthoscope de M. le professeur Laennec, Gabon, Paris, 1823 30 p., in-8, lire en ligne sur Gallica.
@@ -600,16 +616,18 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Son nom reste attaché à deux procédés de son invention, l'un pour désarticuler l'épaule avec plus de célérité, l'autre pour amputer le pied dans son articulation tarso-métatarsienne, de manière à laisser à l'amputé une plus large base de sustentation.
-Son nom[2] a également été donné à :
-une articulation au niveau du pied, l'articulation tarso-métatarsienne, dite « articulation de Lisfranc »[3] ;
-une atteinte traumatique de cette dernière, ou fracture ou dislocation de Lisfranc[4] (classée en trois types) ;
-une intervention chirurgicale, l'« opération de Lisfranc »[5] consistant en une désarticulation (ou amputation) tarso-métatarsienne ;
-un tubercule de la première côte ou s'insère le muscle scalène : « tubercule de Lisfranc »[6];
+Son nom a également été donné à :
+une articulation au niveau du pied, l'articulation tarso-métatarsienne, dite « articulation de Lisfranc » ;
+une atteinte traumatique de cette dernière, ou fracture ou dislocation de Lisfranc (classée en trois types) ;
+une intervention chirurgicale, l'« opération de Lisfranc » consistant en une désarticulation (ou amputation) tarso-métatarsienne ;
+un tubercule de la première côte ou s'insère le muscle scalène : « tubercule de Lisfranc »;
 les ligaments interosseux cunéo-métatarsiens : « ligaments de Lisfranc ».
-la faculté de médecine de Saint-Étienne (à Saint-Priest-en-Jarez sur le site de l'hôpital Nord)[7].</t>
+la faculté de médecine de Saint-Étienne (à Saint-Priest-en-Jarez sur le site de l'hôpital Nord).</t>
         </is>
       </c>
     </row>
